--- a/7CRUDCarriers_LMS_API/src/test/resources/excelData/program_testdata.xlsx
+++ b/7CRUDCarriers_LMS_API/src/test/resources/excelData/program_testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavit\git\7CRUDCarriers_LMS_API\7CRUDCarriers_LMS_API\src\test\resources\excelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22436E90-8B4F-46FC-8C3B-C82920B7C3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ED7607-06CB-4BD1-A6F4-3976710A6D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,23 +23,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
   <si>
     <t>Test case Name</t>
   </si>
   <si>
-    <t>To create record with invalid linkedin url</t>
-  </si>
-  <si>
-    <t>To create record with invalid time zone</t>
-  </si>
-  <si>
-    <t>To create record with invalid visa status</t>
-  </si>
-  <si>
-    <t>To create record with invalid phone number</t>
-  </si>
-  <si>
     <t>Message</t>
   </si>
   <si>
@@ -52,48 +40,12 @@
     <t>200</t>
   </si>
   <si>
-    <t>To create user record with only First name</t>
-  </si>
-  <si>
-    <t>To create user record with only Last name</t>
-  </si>
-  <si>
-    <t>To create record with alphanumeric name and location</t>
-  </si>
-  <si>
     <t>400</t>
   </si>
   <si>
-    <t>Failed to create</t>
-  </si>
-  <si>
-    <t>To update user name with valid input</t>
-  </si>
-  <si>
-    <t>UserId</t>
-  </si>
-  <si>
-    <t>To update user name with alphanumeric input</t>
-  </si>
-  <si>
     <t>Failed to update</t>
   </si>
   <si>
-    <t>To update with invalid phone number</t>
-  </si>
-  <si>
-    <t>To update time zone with valid input</t>
-  </si>
-  <si>
-    <t>To update record with alphanumeric location and comments</t>
-  </si>
-  <si>
-    <t>To update time zone with invalid input</t>
-  </si>
-  <si>
-    <t>To update Linkedin id with valid input</t>
-  </si>
-  <si>
     <t>To update visa status with invalid input</t>
   </si>
   <si>
@@ -101,26 +53,6 @@
   </si>
   <si>
     <t>000</t>
-  </si>
-  <si>
-    <t>User successfully Created!</t>
-  </si>
-  <si>
-    <t>{
-    "user_id": "U04",
-    "name": "Robert,Louis",
-    "phone_number": 9566751211,
-    "location": "Minneapolis",
-    "time_zone": "IST",
-    "linkedin_url": "https://www.linkedin.com/in/RobertLouis/",
-    "education_ug": "Electronics and Communication Engineering",
-    "education_pg": "MTech",
-    "visa_status": "GC-EAD",
-    "comments": "Test"
-}</t>
-  </si>
-  <si>
-    <t>U04</t>
   </si>
   <si>
     <t>{
@@ -143,228 +75,6 @@
     <t>User Successfully Updated</t>
   </si>
   <si>
-    <t>{
-"name": ",Zinta",
-"phone_number": 1234557890,
-"location": "Cannada",
-"time_zone": "PST",
-"linkedin_url": "https://www.linkedin.com/in/Zinta/",
-"education_ug": "Computer Science Engineering",
-"education_pg": "MBA",
-"visa_status": "Not-Specified",
-"comments": "Hello"
-}</t>
-  </si>
-  <si>
-    <t>{
-"name": "Siara,",
-"phone_number": 123466890,
-"location": "New York",
-"time_zone": "PST",
-"linkedin_url": "https://www.linkedin.com/in/Siara/",
-"education_ug": "Computer Science Engineering",
-"education_pg": "MBA",
-"visa_status": "Not-Specified",
-"comments": "Hello"
-}</t>
-  </si>
-  <si>
-    <t>{
-"name": "Sam,Dunkan",
-"phone_number": 2912345678,
-"location": "India",
-"time_zone": "IST",
-"linkedin_url": "12SFGH@linkedin#%$%^",
-"education_ug": "Computer Science",
-"education_pg": "",
-"visa_status": "H4-EAD",
-"comments": "Hello"
-}</t>
-  </si>
-  <si>
-    <t>{
-"name": "Harry,Hansen",
-"phone_number": 9087629128,
-"location": "USA",
-"time_zone": "AA",
-"linkedin_url": "https://www.linkedin.com/in/Harry Hansen/",
-"education_ug": "Computer Science",
-"education_pg": "MS",
-"visa_status": "H1B",
-"comments": "Hello"
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"name": "Swathi,Hope",
-"phone_number": 9753281287,
-"location": "Michigan",
-"time_zone": "EST",
-"linkedin_url": "",
-"education_ug": "Computer Science",
-"education_pg": "",
-"visa_status": "Not-Specified",
-"comments": ""
-} </t>
-  </si>
-  <si>
-    <t>{
-"name": "Newton,Krill",
-"phone_number": "aaabbbccc",
-"location": "Texas",
-"time_zone": "EST",
-"linkedin_url": "https://www.linkedin.com/in/Newton Krill/",
-"education_ug": "Computer Science",
-"education_pg": "MS",
-"visa_status": "Not-Specified",
-"comments": "Test"
-}</t>
-  </si>
-  <si>
-    <t>{
-"name": "200ADF,John",
-"phone_number": 12345521430,
-"location": "Ne763ork",
-"time_zone": "PST",
-"linkedin_url": "https://www.linkedin.com/in/123ADFG John/",
-"education_ug": "Electronics Engineering",
-"education_pg": "BTech",
-"visa_status": "H4-EAD",
-"comments": "Hello"
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"name": "Zack,Reader",
-"phone_number": 9753281287,
-"location": "Toronto",
-"time_zone": "CST",
-"linkedin_url": "https://www.linkedin.com/in/Zack Reader/",
-"education_ug": "Computer Science",
-"education_pg": "MS",
-"visa_status": 4521,
-"comments": "Hello"
-}  </t>
-  </si>
-  <si>
-    <t>To create User record with blank linkedin_url, education_pg, comments</t>
-  </si>
-  <si>
-    <t>To create record with phone number less than ten digits</t>
-  </si>
-  <si>
-    <t>{
-"name": "Mark,Reeves",
-"phone_number": 93281,
-"location": "Waxhaw",
-"time_zone": "EST",
-"linkedin_url": "https://www.linkedin.com/in/Mark Reeves/",
-"education_ug": "Computer Science",
-"education_pg": "MS",
-"visa_status": "Not-Specified",
-"comments": "Citizen"
-}</t>
-  </si>
-  <si>
-    <t>{
-    "user_id": "U03",
-    "name": "Mary,Poppins",
-    "phone_number": 9057654321,
-    "location": "Canada",
-    "time_zone": "EST",
-    "linkedin_url": "https://www.linkedin.com/in/Sarah Zack/",
-    "education_ug": "Computer Science Engineering",
-    "education_pg": "MS",
-    "visa_status": "H1B",
-    "comments": "Hello"
-}</t>
-  </si>
-  <si>
-    <t>U06</t>
-  </si>
-  <si>
-    <t>{
-    "user_id": "U06",
-    "name": "Sylvia,674777ack",
-    "phone_number": 9562009911,
-    "location": "India123",
-    "time_zone": "IST",
-    "linkedin_url": "https://www.linkedin.com/in/Sylvia674777ack/",
-    "education_ug": "Computer Science Engineering",
-    "education_pg": "MS",
-    "visa_status": "H1B",
-    "comments": "Hello"
-}</t>
-  </si>
-  <si>
-    <t>U143</t>
-  </si>
-  <si>
-    <t>{
-    "user_id": "U143",
-    "name": "Sam,Axe",
-    "phone_number": "9876slrm321",
-    "location": "Arizona",
-    "time_zone": "EST",
-    "linkedin_url": "https://www.linkedin.com/in/Sam Axe/",
-    "education_ug": "Electronics and Electrical Engineering",
-    "education_pg": " Computer Technology",
-    "visa_status": "H4-EAD",
-    "comments": "Test"
-}</t>
-  </si>
-  <si>
-    <t>U148</t>
-  </si>
-  <si>
-    <t>{
-    "user_id": "U148",
-    "name": "Zeek,Roy",
-    "phone_number": 1234667890,
-    "location": "New 12345",
-    "time_zone": "CST",
-    "linkedin_url": "https://www.linkedin.com/in/Zeek Roy/",
-    "education_ug": "Robotics",
-    "education_pg": "MS",
-    "visa_status": "US-Citizen",
-    "comments": "Tes4592759t"
-}</t>
-  </si>
-  <si>
-    <t>U112</t>
-  </si>
-  <si>
-    <t>{
-    "user_id": "U112",
-    "name": "Ellisha,hope",
-    "phone_number": 1234667890,
-    "location": "New York",
-    "time_zone": "CST",
-    "linkedin_url": "https://www.linkedin.com/in/Preeti Gupta/",
-    "education_ug": "BTech",
-    "education_pg": "MTech",
-    "visa_status": "Not-Specified",
-    "comments": "Test"
-}</t>
-  </si>
-  <si>
-    <t>U11</t>
-  </si>
-  <si>
-    <t>{
-    "user_id": "U11",
-    "name": "Shinoj,Accart",
-    "phone_number": 1234667890,
-    "location": "New York",
-    "time_zone": "ZST",
-    "linkedin_url": "https://www.linkedin.com/in/Preeti Gupta/",
-    "education_ug": "BTech",
-    "education_pg": "MTech",
-    "visa_status": "Not-Specified",
-    "comments": "Tes4592759t"
-}</t>
-  </si>
-  <si>
     <t>ProgramId</t>
   </si>
   <si>
@@ -395,24 +105,10 @@
     <t>Null</t>
   </si>
   <si>
-    <t>520</t>
-  </si>
-  <si>
     <t>Check if the user able to create new Program</t>
   </si>
   <si>
-    <t>{
-        "programName": "Jan23-CRUDCarriers-SDET-50",
-        "programDescription": "Update Program By Name null",
-        "programStatus": "InActive",
-        "creationTime": "2023-01-11T02:00:02.628+00:00",
-        "lastModTime": "2023-01-11T02:00:02.628+00:00"}</t>
-  </si>
-  <si>
     <t>201</t>
-  </si>
-  <si>
-    <t>Program  successfully Created!</t>
   </si>
   <si>
     <t>{
@@ -427,9 +123,6 @@
     <t>Create new Program with duplicate record</t>
   </si>
   <si>
-    <t>To create user record with blank fields</t>
-  </si>
-  <si>
     <t>To delete existing program by id</t>
   </si>
   <si>
@@ -457,22 +150,198 @@
     <t>Not found</t>
   </si>
   <si>
+    <t>To create Program record with blank creationTime and lasModTime</t>
+  </si>
+  <si>
+    <t>To create record with blank ProgramStatus</t>
+  </si>
+  <si>
+    <t>To create record with invalid crationTime and lastModTime</t>
+  </si>
+  <si>
+    <t>To create Program with blank fields</t>
+  </si>
+  <si>
     <t>{
-        "programName": "Jan23-CRUDCarriers-SDET-562",
+        "programName": "",
         "programDescription": "Update Program By Name null",
         "programStatus": "InActive",
         "creationTime": "2023-01-11T02:00:02.628+00:00",
         "lastModTime": "2023-01-11T02:00:02.628+00:00"}</t>
   </si>
   <si>
-    <t>Jan23-CRUDCarriers-SDET-562</t>
+    <t>To create Program record with blank ProgramName</t>
+  </si>
+  <si>
+    <t>{
+        "programName": "Jan23-CRUDCarriers-SDET-566",
+        "programDescription": "Update Program By Name null",
+        "programStatus": "InActive",
+        "creationTime": "2023-01-11T02:00:02.628+00:00",
+        "lastModTime": "2023-01-11T02:00:02.628+00:00"}</t>
+  </si>
+  <si>
+    <t>{
+        "programName": "Jan23-CRUDCarriers-SDET-567",
+        "programDescription": "Update Program By Name null",
+        "programStatus": "InActive",
+        "creationTime": "",
+        "lastModTime": ""}</t>
+  </si>
+  <si>
+    <t>{
+        "programName": "Jan23-CRUDCarriers-SDET-569",
+        "programDescription": "Update Program By Name null",
+        "programStatus": "InActive",
+        "creationTime": "2023-01-11T02:gfg2.628+00:00",
+        "lastModTime": "2023-01-11T02:fff02.628+00:00"}</t>
+  </si>
+  <si>
+    <t>{
+        "programName": "Jan23-CRUDCarriers-SDET-570",
+        "programDescription": "Update Program By Name null",
+        "programStatus": "",
+        "creationTime": "2023-01-11T02:00:02.628+00:00",
+        "lastModTime": "2023-01-11T02:00:02.628+00:00"}</t>
+  </si>
+  <si>
+    <t>cannot create program , since already exists</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>could not execute statement</t>
+  </si>
+  <si>
+    <t>Validation failed for classes</t>
+  </si>
+  <si>
+    <t>To create record with Numeric ProgramName</t>
+  </si>
+  <si>
+    <t>cannot create program , since already exists</t>
+  </si>
+  <si>
+    <t>To update program by program id</t>
+  </si>
+  <si>
+    <t>{ 
+"programName": "Java210", 
+"programDescription": "Java210", 
+"programStatus": "InActive", 
+"creationTime": "2022-09-28T19:53:25.244+00:00", 
+"lastModTime": "2022-09-28T19:53:25.244+00:00" 
+}</t>
+  </si>
+  <si>
+    <t>To update program by program name</t>
+  </si>
+  <si>
+    <t>Java210</t>
+  </si>
+  <si>
+    <t>{ 
+"programName": "Java205", 
+"programDescription": "Java205", 
+"programStatus": "InActive", 
+"creationTime": "2023-09-28T19:53:25.244+00:00", 
+"lastModTime": "2023-09-28T19:53:25.244+00:00" 
+}</t>
+  </si>
+  <si>
+    <t>To update program with already available program name</t>
+  </si>
+  <si>
+    <t>{ 
+"programName": "Division", 
+"programDescription": "Java205", 
+"programStatus": "InActive", 
+"creationTime": "2022-09-28T19:53:25.244+00:00", 
+"lastModTime": "2022-09-28T19:53:25.244+00:00" 
+}</t>
+  </si>
+  <si>
+    <t>To update record with alphanumeric program name, description and status</t>
+  </si>
+  <si>
+    <t>{ 
+"programName": "Java205", 
+"programDescription": "Java205", 
+"programStatus": "InActive", 
+"creationTime": "2022-09-28T19:53:25.244+00:00", 
+"lastModTime": "2022-09-28T19:53:25.244+00:00" 
+}</t>
+  </si>
+  <si>
+    <t>To update record with invalid creation time and last mod time</t>
+  </si>
+  <si>
+    <t>{ 
+"programName": "Java205", 
+"programDescription": "Java205", 
+"programStatus": "InActive", 
+"creationTime": "20-09-2:53:25.244+00:00", 
+"lastModTime": "20-09-2:53:25.244+00:00" 
+}</t>
+  </si>
+  <si>
+    <t>{
+    "timestamp": "2023-01-15T04:26:15.957+00:00",
+    "status": 400,
+    "error": "Bad Request",
+    "path": "/lms/putprogram/2525"
+}</t>
+  </si>
+  <si>
+    <t>To update record by sending invalid program id</t>
+  </si>
+  <si>
+    <t>{
+    "errorCode": "ENTITY_DOES_NOT_EXIST",
+    "errorMessage": "program with 34343not found"
+}</t>
+  </si>
+  <si>
+    <t>To update record by sending invalid program name</t>
+  </si>
+  <si>
+    <t>Hts8sjs</t>
+  </si>
+  <si>
+    <t>{
+    "errorCode": "ENTITY_DOES_NOT_EXIST",
+    "errorMessage": "program with idHts8sjsnot found"
+}</t>
+  </si>
+  <si>
+    <t>5940</t>
+  </si>
+  <si>
+    <t>{
+        "programName": "Jan23-CRUDCarriers-SDET-600",
+        "programDescription": "Update Program By Name null",
+        "programStatus": "InActive",
+        "creationTime": "2023-01-11T02:00:02.628+00:00",
+        "lastModTime": "2023-01-11T02:00:02.628+00:00"}</t>
+  </si>
+  <si>
+    <t>{
+        "programName": "111111",
+        "programDescription": "45654566l",
+        "programStatus": "InActive",
+        "creationTime": "2023-01-11T02:00:02.628+00:00",
+        "lastModTime": "2023-01-11T02:00:02.628+00:00"}</t>
+  </si>
+  <si>
+    <t>Jan23-CRUDCarriers-SDET-02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,12 +362,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF0451A5"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -602,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -633,41 +496,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,7 +819,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -962,80 +834,80 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>64</v>
+        <v>16</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="14">
+        <v>18</v>
+      </c>
+      <c r="C8" s="12">
         <v>404</v>
       </c>
     </row>
@@ -1047,10 +919,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1066,181 +938,125 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>42</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3">
+        <v>400</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
+      <c r="C9" s="3">
+        <v>201</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1253,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1266,157 +1082,157 @@
     <col min="5" max="5" width="44.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="216" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="19">
+        <v>5940</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="23">
+        <v>200</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="24">
+        <v>200</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="24">
+        <v>3363</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="24">
+        <v>400</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="216" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="216" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="11" t="s">
+    <row r="5" spans="1:5" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="24">
+        <v>3363</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="24">
+        <v>200</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="216" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>31</v>
+    </row>
+    <row r="6" spans="1:5" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="24">
+        <v>3363</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="24">
+        <v>400</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="21">
+        <v>34343</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="24">
+        <v>400</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="24">
+        <v>400</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1430,7 +1246,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1443,81 +1259,81 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="19">
+        <v>5057</v>
+      </c>
+      <c r="C2" s="14">
+        <v>200</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="22">
-        <v>2548</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="C3" s="17">
         <v>200</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="20">
-        <v>200</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>73</v>
+      <c r="D3" s="18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="23">
+      <c r="A4" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="20">
         <v>6000</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>400</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>76</v>
+      <c r="D4" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="20">
+      <c r="A5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="17">
         <v>400</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>76</v>
+      <c r="D5" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="20">
+      <c r="A6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="17">
         <v>404</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>80</v>
+      <c r="D6" s="18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">

--- a/7CRUDCarriers_LMS_API/src/test/resources/excelData/program_testdata.xlsx
+++ b/7CRUDCarriers_LMS_API/src/test/resources/excelData/program_testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavit\git\7CRUDCarriers_LMS_API\7CRUDCarriers_LMS_API\src\test\resources\excelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ED7607-06CB-4BD1-A6F4-3976710A6D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25797D62-7AC3-4DA0-957C-8111DE23B825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -315,26 +315,26 @@
 }</t>
   </si>
   <si>
-    <t>5940</t>
+    <t>1925</t>
   </si>
   <si>
     <t>{
-        "programName": "Jan23-CRUDCarriers-SDET-600",
+        "programName": "222223",
+        "programDescription": "45654566l",
+        "programStatus": "InActive",
+        "creationTime": "2023-01-11T02:00:02.628+00:00",
+        "lastModTime": "2023-01-11T02:00:02.628+00:00"}</t>
+  </si>
+  <si>
+    <t>{
+        "programName": "Jan23-CRUDCarriers-SDET-811",
         "programDescription": "Update Program By Name null",
         "programStatus": "InActive",
         "creationTime": "2023-01-11T02:00:02.628+00:00",
         "lastModTime": "2023-01-11T02:00:02.628+00:00"}</t>
   </si>
   <si>
-    <t>{
-        "programName": "111111",
-        "programDescription": "45654566l",
-        "programStatus": "InActive",
-        "creationTime": "2023-01-11T02:00:02.628+00:00",
-        "lastModTime": "2023-01-11T02:00:02.628+00:00"}</t>
-  </si>
-  <si>
-    <t>Jan23-CRUDCarriers-SDET-02</t>
+    <t>Jan23-CRUDCarriers-SDET-134</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -540,6 +540,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -819,7 +822,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,7 +955,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>24</v>
@@ -1050,9 +1053,9 @@
         <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="3">
+        <v>70</v>
+      </c>
+      <c r="C9" s="27">
         <v>201</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1069,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1104,7 +1107,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="19">
-        <v>5940</v>
+        <v>1925</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>53</v>
@@ -1246,7 +1249,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1273,7 +1276,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="19">
-        <v>5057</v>
+        <v>10007</v>
       </c>
       <c r="C2" s="14">
         <v>200</v>

--- a/7CRUDCarriers_LMS_API/src/test/resources/excelData/program_testdata.xlsx
+++ b/7CRUDCarriers_LMS_API/src/test/resources/excelData/program_testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavit\git\7CRUDCarriers_LMS_API\7CRUDCarriers_LMS_API\src\test\resources\excelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25797D62-7AC3-4DA0-957C-8111DE23B825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ED7607-06CB-4BD1-A6F4-3976710A6D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -315,26 +315,26 @@
 }</t>
   </si>
   <si>
-    <t>1925</t>
+    <t>5940</t>
   </si>
   <si>
     <t>{
-        "programName": "222223",
+        "programName": "Jan23-CRUDCarriers-SDET-600",
+        "programDescription": "Update Program By Name null",
+        "programStatus": "InActive",
+        "creationTime": "2023-01-11T02:00:02.628+00:00",
+        "lastModTime": "2023-01-11T02:00:02.628+00:00"}</t>
+  </si>
+  <si>
+    <t>{
+        "programName": "111111",
         "programDescription": "45654566l",
         "programStatus": "InActive",
         "creationTime": "2023-01-11T02:00:02.628+00:00",
         "lastModTime": "2023-01-11T02:00:02.628+00:00"}</t>
   </si>
   <si>
-    <t>{
-        "programName": "Jan23-CRUDCarriers-SDET-811",
-        "programDescription": "Update Program By Name null",
-        "programStatus": "InActive",
-        "creationTime": "2023-01-11T02:00:02.628+00:00",
-        "lastModTime": "2023-01-11T02:00:02.628+00:00"}</t>
-  </si>
-  <si>
-    <t>Jan23-CRUDCarriers-SDET-134</t>
+    <t>Jan23-CRUDCarriers-SDET-02</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -540,9 +540,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,7 +819,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -955,7 +952,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>24</v>
@@ -1053,9 +1050,9 @@
         <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="27">
+        <v>71</v>
+      </c>
+      <c r="C9" s="3">
         <v>201</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1072,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1107,7 +1104,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="19">
-        <v>1925</v>
+        <v>5940</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>53</v>
@@ -1249,7 +1246,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1276,7 +1273,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="19">
-        <v>10007</v>
+        <v>5057</v>
       </c>
       <c r="C2" s="14">
         <v>200</v>
